--- a/course-outline.xlsx
+++ b/course-outline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\intermediate-python-in-excel-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0023913C-86E0-4667-9E02-936F1ACC3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DD77EA-9D95-4712-A08A-DB19E333216E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Chapter #</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t xml:space="preserve">Cross-Check Your Results? </t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://stringfestanalytics.com/wp-admin/post.php?post=15318&amp;action=edit</t>
   </si>
 </sst>
 </file>
@@ -137,20 +143,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -168,7 +179,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -284,6 +295,25 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -298,14 +328,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDEDED4B-BBC1-4632-84C8-71278AE8EF3B}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:E13" xr:uid="{FDEDED4B-BBC1-4632-84C8-71278AE8EF3B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0C6FC33B-B8A4-4970-B950-2191D226080B}" name="Chapter #" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{865E4E5C-EEEC-4510-94D5-CB541F9E4962}" name="Chapter" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{11A3F200-096C-4C4A-B49F-3466EBED90C0}" name="Video #" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{10D0F1EE-4FCE-4E12-966F-F182B59FDD01}" name="Video Name" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4BFC9D06-A90F-4FA3-B74D-DE59F5749213}" name="Status" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDEDED4B-BBC1-4632-84C8-71278AE8EF3B}" name="Table1" displayName="Table1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F13" xr:uid="{FDEDED4B-BBC1-4632-84C8-71278AE8EF3B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{0C6FC33B-B8A4-4970-B950-2191D226080B}" name="Chapter #" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{865E4E5C-EEEC-4510-94D5-CB541F9E4962}" name="Chapter" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{11A3F200-096C-4C4A-B49F-3466EBED90C0}" name="Video #" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{10D0F1EE-4FCE-4E12-966F-F182B59FDD01}" name="Video Name" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4BFC9D06-A90F-4FA3-B74D-DE59F5749213}" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F6710345-B5DC-4805-A46A-584AFAB359AB}" name="URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -574,21 +605,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="28.26171875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="2"/>
-    <col min="3" max="3" width="11.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="28.265625" style="2"/>
+    <col min="1" max="1" width="12.9453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,192 +633,209 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/course-outline.xlsx
+++ b/course-outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\intermediate-python-in-excel-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0023913C-86E0-4667-9E02-936F1ACC3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A034AC-36C0-421F-8C69-5B1EADEA8E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Chapter #</t>
   </si>
@@ -137,13 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -151,25 +150,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -284,6 +264,25 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -298,14 +297,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDEDED4B-BBC1-4632-84C8-71278AE8EF3B}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FDEDED4B-BBC1-4632-84C8-71278AE8EF3B}" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E13" xr:uid="{FDEDED4B-BBC1-4632-84C8-71278AE8EF3B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{0C6FC33B-B8A4-4970-B950-2191D226080B}" name="Chapter #" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{865E4E5C-EEEC-4510-94D5-CB541F9E4962}" name="Chapter" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{11A3F200-096C-4C4A-B49F-3466EBED90C0}" name="Video #" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{10D0F1EE-4FCE-4E12-966F-F182B59FDD01}" name="Video Name" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4BFC9D06-A90F-4FA3-B74D-DE59F5749213}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{0C6FC33B-B8A4-4970-B950-2191D226080B}" name="Chapter #" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{865E4E5C-EEEC-4510-94D5-CB541F9E4962}" name="Chapter" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{11A3F200-096C-4C4A-B49F-3466EBED90C0}" name="Video #" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{10D0F1EE-4FCE-4E12-966F-F182B59FDD01}" name="Video Name" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{4BFC9D06-A90F-4FA3-B74D-DE59F5749213}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -576,19 +575,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.9296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" style="2"/>
-    <col min="3" max="3" width="11.265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="28.265625" style="2"/>
+    <col min="1" max="1" width="12.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,190 +603,198 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>3</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
